--- a/.development/Documentation/Abatab-RoadmapQueue.xlsx
+++ b/.development/Documentation/Abatab-RoadmapQueue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\GitHub\SHS\Abatab\.development\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2FA501-9B8A-45A3-BD38-DDD93D52E24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908A3ECD-8ECC-40C8-A75D-E22DBBA56C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="38700" windowHeight="15315" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6450" yWindow="2850" windowWidth="38700" windowHeight="15315" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Core functionality" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ITEM</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>Goals</t>
+  </si>
+  <si>
+    <t>As functionality is added, more staff use Abatab, and more logfiles are written, we should probably look at the write delay and determine:
+* What is the best global delay?
+* Are there certain logs that should not have a delay?
+* Are there certain logs that should always have a specific delay?</t>
   </si>
 </sst>
 </file>
@@ -93,10 +99,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,12 +433,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="61.140625" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -446,12 +453,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/.development/Documentation/Abatab-RoadmapQueue.xlsx
+++ b/.development/Documentation/Abatab-RoadmapQueue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\GitHub\SHS\Abatab\.development\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908A3ECD-8ECC-40C8-A75D-E22DBBA56C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F83799-019E-4C72-9821-74C5F31190E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6450" yWindow="2850" windowWidth="38700" windowHeight="15315" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ITEM</t>
   </si>
@@ -56,6 +56,15 @@
 * What is the best global delay?
 * Are there certain logs that should not have a delay?
 * Are there certain logs that should always have a specific delay?</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>All documentation through v23.3 should be complete, including:
+- [ ] XML documentation
+- [ ] The Abatab Manual
+- [ ] Abatab APIs</t>
   </si>
 </sst>
 </file>
@@ -98,11 +107,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,38 +439,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34E03EE-5E86-459C-ADD2-7AD86DEEA309}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="61.140625" customWidth="1"/>
-    <col min="3" max="3" width="57.42578125" customWidth="1"/>
+    <col min="1" max="4" width="56" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/.development/Documentation/Abatab-RoadmapQueue.xlsx
+++ b/.development/Documentation/Abatab-RoadmapQueue.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\GitHub\SHS\Abatab\.development\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F83799-019E-4C72-9821-74C5F31190E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DC17D6-1AE7-4C34-8B6D-C1D970F2842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="2850" windowWidth="38700" windowHeight="15315" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30645" windowHeight="21000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Core functionality" sheetId="1" r:id="rId1"/>
     <sheet name="Module functionality" sheetId="2" r:id="rId2"/>
+    <sheet name="Documentation" sheetId="3" r:id="rId3"/>
+    <sheet name="Regression" sheetId="4" r:id="rId4"/>
+    <sheet name="Misc" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
   <si>
     <t>ITEM</t>
   </si>
@@ -43,13 +46,6 @@
   </si>
   <si>
     <t>Maybe these two should be combined? Or maybe leave them separate?</t>
-  </si>
-  <si>
-    <t>Combine "Core.AbatabLogging.BuidlPath.cs" and
-Core.AbatabLogging.BuildPaths.cs</t>
-  </si>
-  <si>
-    <t>Goals</t>
   </si>
   <si>
     <t>As functionality is added, more staff use Abatab, and more logfiles are written, we should probably look at the write delay and determine:
@@ -58,20 +54,237 @@
 * Are there certain logs that should always have a specific delay?</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>All documentation through v23.3 should be complete, including:
 - [ ] XML documentation
 - [ ] The Abatab Manual
 - [ ] Abatab APIs</t>
+  </si>
+  <si>
+    <t>Rename "Core.AbatabLogging.BuidlPaths.BuildDir()" methods to "BuildPath()"</t>
+  </si>
+  <si>
+    <t>"Path" makes more sense than "Dir"</t>
+  </si>
+  <si>
+    <t>Update all BuildPaths.cs methods to return List</t>
+  </si>
+  <si>
+    <t>When [Warning logs were implemented](https://github.com/spectrum-health-systems/Abatab/issues/90), changes were made to Core.AbatabLogging.BuildPaths.cs specific to the Warning logs.
+We should modify the remaining methods in BuildPaths.cs to return `List&lt;string&gt;`</t>
+  </si>
+  <si>
+    <t>Log file delay</t>
+  </si>
+  <si>
+    <t>Create common method for looping through OptionObjects</t>
+  </si>
+  <si>
+    <t>Hopefully the looping through forms, etc. is the same across the board, so we should be able to have a common method that does this.
+We will test this when building out the check for incorrect Place of Service functionality.</t>
+  </si>
+  <si>
+    <t>ModCommon</t>
+  </si>
+  <si>
+    <t>Add Abatab version to log files</t>
+  </si>
+  <si>
+    <t>Not sure if this should be every logfile, or what format it should take (maybe like the error code on popups?), but this would give us another datapoint in troubleshooting.</t>
+  </si>
+  <si>
+    <t>Access log details</t>
+  </si>
+  <si>
+    <t>The access log should have a better, more descriptive filename and contents.</t>
+  </si>
+  <si>
+    <t>Logging detail levels</t>
+  </si>
+  <si>
+    <t>Error log functionality</t>
+  </si>
+  <si>
+    <t>When Abatab encounters an error, that error should be written to a separate error file.
+The warning log should be written:
+- [ ] To an external `Errors/` folder that is not accessible to the public
+This functionality will require:
+* TBD</t>
+  </si>
+  <si>
+    <t>Lost logs</t>
+  </si>
+  <si>
+    <t>Catch any logs that aren't one of the official types.</t>
+  </si>
+  <si>
+    <t>Change ModQuickMedOrderDosePercentBoundary to "25"</t>
+  </si>
+  <si>
+    <t>Easier to read and modify, less prone to mistakes. Will need to be changed in Web.config, as well as source code.</t>
+  </si>
+  <si>
+    <t>ModQuickMedOrder</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>Log all ModQuickMedOrder details</t>
+  </si>
+  <si>
+    <t>Log all QMO data in session log (e.g., LastOrderScheduledText)  
+Additional datapoints for troubleshooting</t>
+  </si>
+  <si>
+    <t>Source code cleanup/refactor</t>
+  </si>
+  <si>
+    <t>Complete Documentation</t>
+  </si>
+  <si>
+    <t>Verify Settings.settings order is consistant</t>
+  </si>
+  <si>
+    <t>There are various locations in the source code where the settings/configuration values are listed. We should make sure that each of those locations match.
+This includes Web.config and Settings.settings.</t>
+  </si>
+  <si>
+    <t>Cleanup</t>
+  </si>
+  <si>
+    <t>Cleanup DocFX folders</t>
+  </si>
+  <si>
+    <t>Verify that DocFX has what it needs, and doesn't have unnecessary data.</t>
+  </si>
+  <si>
+    <t>[VERIFY] QuickMedOrder-Dose-VerifyAmount</t>
+  </si>
+  <si>
+    <t>Test the following:
+- [ ] Dose.VerifyUnderMaxPercentIncrease
+- [ ] Dose.VerifyUnderMaxMilligramIncrease
+- [ ] Dose.VerifyUnderMaxPercentIncrease
+Also make sure that the testing documentation is up to date.
+Eventually we should make this a built-in test.</t>
+  </si>
+  <si>
+    <t>[VERIFY] AbatabOption</t>
+  </si>
+  <si>
+    <t>Verify that even though there is space for an AbatabOption in the Script Parameter, it doesn't affect anything if it's missing.</t>
+  </si>
+  <si>
+    <t>[VERIFY] All combinations of log file types work</t>
+  </si>
+  <si>
+    <t>For example: error-trace-warning, trace-warning-other, none.</t>
+  </si>
+  <si>
+    <t>[VERIFY] Authorized Users</t>
+  </si>
+  <si>
+    <t>Verify that the list of authorized users works for functionality.</t>
+  </si>
+  <si>
+    <t>[VERIFY] Replacing DLLs when updating Abatab</t>
+  </si>
+  <si>
+    <t>The Abatab framework is modular. Each core component and module are separate C# projects. This allows changes to be made to a specific component of Abatab, without affecting the other components.
+This is mainly done via replacing project DLLs when updating Abatab. This has been tested, but I would like to do a few more in-depth tests to verify everything is working as expected.
+These tests should be done using the testing branch.
+- [ ] Test to make sure that replacing DLL files works as expected.
+- [ ] Confirm that we need/don't need other .DLLs (e.g., Roslyn stuff)</t>
+  </si>
+  <si>
+    <t>[VERIFY] All log types are written to the correct folder</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>[VERIFY] debugMode</t>
+  </si>
+  <si>
+    <t>Test the following debugMode functionality:
+- [ ] Verify "on" / "enabled" is working correctly</t>
+  </si>
+  <si>
+    <t>Dose warnings</t>
+  </si>
+  <si>
+    <t>* Public name needs to be formatted better
+* Public log data should be different
+* Private name should include a timestamp
+* Move session warning logs to root of the session (like the .session log is)</t>
+  </si>
+  <si>
+    <t>Dose information to log</t>
+  </si>
+  <si>
+    <t>We should be writing a bunch of this stuff to logs, even when successful.</t>
+  </si>
+  <si>
+    <t>Web Server directories</t>
+  </si>
+  <si>
+    <t>There should be three directories on the web server:
+1. AbatabWebService - the web service
+* Abatab_LIVE
+* Abatab_UAT
+* Abatab_SBOX
+2. AbatabData - data such as Lieutenant stuff, Abatab logs, etc.
+3. AbatabPublic - data available to the public.</t>
+  </si>
+  <si>
+    <t>Issue when an environment is refreshed</t>
+  </si>
+  <si>
+    <t>When an environment is refreshed, the WSDLs come down from LIVE, and need to be recreated in the refreshed environment.
+Is there a better way to do this?</t>
+  </si>
+  <si>
+    <t>New images</t>
+  </si>
+  <si>
+    <t>We have:
+* Changelog
+* Logo
+* Manual Logo
+* Release Notes
+* Roadmap
+We may need:
+* Blank
+* Flowchart
+* Development notes</t>
+  </si>
+  <si>
+    <t>Lowercasing</t>
+  </si>
+  <si>
+    <t>We are currently lowercasing lots of stuff (e.g., stuff in the Web.config)...should we?</t>
+  </si>
+  <si>
+    <t>Verify that the avatar fallback username works</t>
+  </si>
+  <si>
+    <t>Fallback name</t>
+  </si>
+  <si>
+    <t>Backburner</t>
+  </si>
+  <si>
+    <t>Combine "Core.AbatabLogging.BuidlPath.cs" and Core.AbatabLogging.BuildPaths.cs</t>
+  </si>
+  <si>
+    <t>MODULE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,8 +293,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Consolas"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cascadia Code Light"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cascadia Code Light"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cascadia Code Light"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -105,13 +332,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,56 +657,416 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="56" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="114" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="156.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34E03EE-5E86-459C-ADD2-7AD86DEEA309}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="56" style="1" customWidth="1"/>
+    <col min="1" max="3" width="56" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9E308A-EE18-42A4-8D84-76B3C1282D20}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="56" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6BAF84-E3D8-4BB4-9199-F9908C892E81}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="56" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216223ED-CE82-475A-92B4-85D2862B36A1}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="56" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="199.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="185.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
